--- a/Documents/Zeitplanung.xlsx
+++ b/Documents/Zeitplanung.xlsx
@@ -1331,7 +1331,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1428,7 +1428,7 @@
                   <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>111</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1523,13 +1523,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.5</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>58</c:v>
+                  <c:v>56.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1546,11 +1546,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="38713889"/>
-        <c:axId val="80108409"/>
+        <c:axId val="16928127"/>
+        <c:axId val="55533321"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="38713889"/>
+        <c:axId val="16928127"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1582,7 +1582,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80108409"/>
+        <c:crossAx val="55533321"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1590,7 +1590,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80108409"/>
+        <c:axId val="55533321"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1632,7 +1632,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38713889"/>
+        <c:crossAx val="16928127"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1697,9 +1697,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>459360</xdr:colOff>
+      <xdr:colOff>458640</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>69120</xdr:rowOff>
+      <xdr:rowOff>68400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1708,7 +1708,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="916200" y="2067840"/>
-        <a:ext cx="7351560" cy="4607640"/>
+        <a:ext cx="7350120" cy="4606920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1729,7 +1729,7 @@
   <dimension ref="A1:BJ43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AD27" activeCellId="0" sqref="AD27"/>
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="D9" s="33" t="n">
         <f aca="false">SUM(D10:D13)</f>
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="E9" s="34"/>
       <c r="F9" s="35"/>
@@ -2535,7 +2535,7 @@
       </c>
       <c r="D12" s="59" t="n">
         <f aca="false">SUM(G12:BJ12)</f>
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="E12" s="60" t="n">
         <v>1</v>
@@ -2545,21 +2545,27 @@
       <c r="H12" s="55"/>
       <c r="I12" s="63"/>
       <c r="J12" s="63"/>
-      <c r="K12" s="67"/>
+      <c r="K12" s="67" t="n">
+        <v>0.2</v>
+      </c>
       <c r="L12" s="53"/>
       <c r="M12" s="54"/>
       <c r="N12" s="62"/>
       <c r="O12" s="55"/>
       <c r="P12" s="63"/>
       <c r="Q12" s="63"/>
-      <c r="R12" s="67"/>
+      <c r="R12" s="67" t="n">
+        <v>0.4</v>
+      </c>
       <c r="S12" s="53"/>
       <c r="T12" s="54"/>
       <c r="U12" s="62"/>
       <c r="V12" s="55"/>
       <c r="W12" s="63"/>
       <c r="X12" s="63"/>
-      <c r="Y12" s="67"/>
+      <c r="Y12" s="67" t="n">
+        <v>0.5</v>
+      </c>
       <c r="Z12" s="53"/>
       <c r="AA12" s="54"/>
       <c r="AB12" s="50"/>
@@ -2685,7 +2691,7 @@
       </c>
       <c r="D14" s="33" t="n">
         <f aca="false">SUM(D15:D17)</f>
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E14" s="34"/>
       <c r="F14" s="35"/>
@@ -2758,7 +2764,7 @@
       </c>
       <c r="D15" s="59" t="n">
         <f aca="false">SUM(G15:BJ15)</f>
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E15" s="60"/>
       <c r="F15" s="74" t="s">
@@ -2773,9 +2779,7 @@
       <c r="M15" s="54"/>
       <c r="N15" s="48"/>
       <c r="O15" s="49"/>
-      <c r="P15" s="50" t="n">
-        <v>4.5</v>
-      </c>
+      <c r="P15" s="50"/>
       <c r="Q15" s="50"/>
       <c r="R15" s="52"/>
       <c r="S15" s="53"/>
@@ -2787,8 +2791,8 @@
       <c r="Y15" s="52"/>
       <c r="Z15" s="53"/>
       <c r="AA15" s="54"/>
-      <c r="AB15" s="48"/>
-      <c r="AC15" s="49"/>
+      <c r="AB15" s="50"/>
+      <c r="AC15" s="50"/>
       <c r="AD15" s="55"/>
       <c r="AE15" s="55"/>
       <c r="AF15" s="55"/>
@@ -2858,8 +2862,8 @@
       <c r="Y16" s="52"/>
       <c r="Z16" s="53"/>
       <c r="AA16" s="54"/>
-      <c r="AB16" s="62"/>
-      <c r="AC16" s="55"/>
+      <c r="AB16" s="50"/>
+      <c r="AC16" s="50"/>
       <c r="AD16" s="55"/>
       <c r="AE16" s="55"/>
       <c r="AF16" s="55"/>
@@ -2927,8 +2931,8 @@
       <c r="Y17" s="52"/>
       <c r="Z17" s="53"/>
       <c r="AA17" s="54"/>
-      <c r="AB17" s="77"/>
-      <c r="AC17" s="78"/>
+      <c r="AB17" s="50"/>
+      <c r="AC17" s="50"/>
       <c r="AD17" s="55"/>
       <c r="AE17" s="55"/>
       <c r="AF17" s="55"/>
@@ -2972,11 +2976,11 @@
       </c>
       <c r="C18" s="32" t="n">
         <f aca="false">SUM(C19:C30)</f>
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="D18" s="33" t="n">
         <f aca="false">SUM(D19:D30)</f>
-        <v>58</v>
+        <v>56.75</v>
       </c>
       <c r="E18" s="34"/>
       <c r="F18" s="35"/>
@@ -3072,11 +3076,11 @@
       <c r="Y19" s="52"/>
       <c r="Z19" s="53"/>
       <c r="AA19" s="54"/>
-      <c r="AB19" s="48"/>
-      <c r="AC19" s="49"/>
-      <c r="AD19" s="50"/>
-      <c r="AE19" s="50"/>
-      <c r="AF19" s="52"/>
+      <c r="AB19" s="50"/>
+      <c r="AC19" s="50"/>
+      <c r="AD19" s="55"/>
+      <c r="AE19" s="55"/>
+      <c r="AF19" s="55"/>
       <c r="AG19" s="53"/>
       <c r="AH19" s="54"/>
       <c r="AI19" s="48"/>
@@ -3147,11 +3151,11 @@
       <c r="Y20" s="52"/>
       <c r="Z20" s="53"/>
       <c r="AA20" s="54"/>
-      <c r="AB20" s="62"/>
-      <c r="AC20" s="55"/>
-      <c r="AD20" s="50"/>
-      <c r="AE20" s="50"/>
-      <c r="AF20" s="52"/>
+      <c r="AB20" s="50"/>
+      <c r="AC20" s="50"/>
+      <c r="AD20" s="55"/>
+      <c r="AE20" s="55"/>
+      <c r="AF20" s="55"/>
       <c r="AG20" s="53"/>
       <c r="AH20" s="54"/>
       <c r="AI20" s="62"/>
@@ -3191,11 +3195,11 @@
         <v>36</v>
       </c>
       <c r="C21" s="58" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D21" s="59" t="n">
         <f aca="false">SUM(G21:BJ21)</f>
-        <v>17</v>
+        <v>15.75</v>
       </c>
       <c r="E21" s="60"/>
       <c r="F21" s="76"/>
@@ -3209,7 +3213,7 @@
       <c r="N21" s="62"/>
       <c r="O21" s="55"/>
       <c r="P21" s="67" t="n">
-        <v>9</v>
+        <v>7.75</v>
       </c>
       <c r="Q21" s="67" t="n">
         <v>8</v>
@@ -3224,11 +3228,11 @@
       <c r="Y21" s="52"/>
       <c r="Z21" s="53"/>
       <c r="AA21" s="54"/>
-      <c r="AB21" s="62"/>
-      <c r="AC21" s="55"/>
-      <c r="AD21" s="50"/>
-      <c r="AE21" s="50"/>
-      <c r="AF21" s="52"/>
+      <c r="AB21" s="50"/>
+      <c r="AC21" s="50"/>
+      <c r="AD21" s="55"/>
+      <c r="AE21" s="55"/>
+      <c r="AF21" s="55"/>
       <c r="AG21" s="53"/>
       <c r="AH21" s="54"/>
       <c r="AI21" s="62"/>
@@ -3299,11 +3303,11 @@
       <c r="Y22" s="50"/>
       <c r="Z22" s="53"/>
       <c r="AA22" s="54"/>
-      <c r="AB22" s="62"/>
-      <c r="AC22" s="55"/>
-      <c r="AD22" s="50"/>
-      <c r="AE22" s="50"/>
-      <c r="AF22" s="52"/>
+      <c r="AB22" s="50"/>
+      <c r="AC22" s="50"/>
+      <c r="AD22" s="55"/>
+      <c r="AE22" s="55"/>
+      <c r="AF22" s="55"/>
       <c r="AG22" s="53"/>
       <c r="AH22" s="54"/>
       <c r="AI22" s="62"/>
@@ -3378,11 +3382,11 @@
       </c>
       <c r="Z23" s="53"/>
       <c r="AA23" s="54"/>
-      <c r="AB23" s="62"/>
-      <c r="AC23" s="55"/>
-      <c r="AD23" s="50"/>
-      <c r="AE23" s="50"/>
-      <c r="AF23" s="52"/>
+      <c r="AB23" s="50"/>
+      <c r="AC23" s="50"/>
+      <c r="AD23" s="55"/>
+      <c r="AE23" s="55"/>
+      <c r="AF23" s="55"/>
       <c r="AG23" s="53"/>
       <c r="AH23" s="54"/>
       <c r="AI23" s="62"/>
@@ -3451,11 +3455,11 @@
       <c r="Y24" s="52"/>
       <c r="Z24" s="53"/>
       <c r="AA24" s="54"/>
-      <c r="AB24" s="62"/>
-      <c r="AC24" s="55"/>
-      <c r="AD24" s="67"/>
-      <c r="AE24" s="50"/>
-      <c r="AF24" s="52"/>
+      <c r="AB24" s="67"/>
+      <c r="AC24" s="50"/>
+      <c r="AD24" s="55"/>
+      <c r="AE24" s="55"/>
+      <c r="AF24" s="55"/>
       <c r="AG24" s="53"/>
       <c r="AH24" s="54"/>
       <c r="AI24" s="62"/>
@@ -3524,16 +3528,16 @@
       <c r="Y25" s="52"/>
       <c r="Z25" s="53"/>
       <c r="AA25" s="54"/>
-      <c r="AB25" s="62"/>
-      <c r="AC25" s="55"/>
-      <c r="AD25" s="50"/>
-      <c r="AE25" s="67"/>
-      <c r="AF25" s="67"/>
+      <c r="AB25" s="50"/>
+      <c r="AC25" s="67"/>
+      <c r="AD25" s="55"/>
+      <c r="AE25" s="55"/>
+      <c r="AF25" s="55"/>
       <c r="AG25" s="53"/>
       <c r="AH25" s="54"/>
       <c r="AI25" s="62"/>
       <c r="AJ25" s="55"/>
-      <c r="AK25" s="67"/>
+      <c r="AK25" s="50"/>
       <c r="AL25" s="50"/>
       <c r="AM25" s="52"/>
       <c r="AN25" s="53"/>
@@ -3597,11 +3601,11 @@
       <c r="Y26" s="52"/>
       <c r="Z26" s="53"/>
       <c r="AA26" s="54"/>
-      <c r="AB26" s="62"/>
-      <c r="AC26" s="55"/>
-      <c r="AD26" s="50"/>
-      <c r="AE26" s="50"/>
-      <c r="AF26" s="52"/>
+      <c r="AB26" s="50"/>
+      <c r="AC26" s="50"/>
+      <c r="AD26" s="55"/>
+      <c r="AE26" s="55"/>
+      <c r="AF26" s="55"/>
       <c r="AG26" s="53" t="s">
         <v>25</v>
       </c>
@@ -3609,8 +3613,8 @@
       <c r="AI26" s="62"/>
       <c r="AJ26" s="55"/>
       <c r="AK26" s="50"/>
-      <c r="AL26" s="67"/>
-      <c r="AM26" s="67"/>
+      <c r="AL26" s="50"/>
+      <c r="AM26" s="50"/>
       <c r="AN26" s="53"/>
       <c r="AO26" s="54"/>
       <c r="AP26" s="62"/>
@@ -3670,11 +3674,11 @@
       <c r="Y27" s="52"/>
       <c r="Z27" s="53"/>
       <c r="AA27" s="54"/>
-      <c r="AB27" s="62"/>
-      <c r="AC27" s="55"/>
-      <c r="AD27" s="50"/>
-      <c r="AE27" s="50"/>
-      <c r="AF27" s="52"/>
+      <c r="AB27" s="50"/>
+      <c r="AC27" s="50"/>
+      <c r="AD27" s="55"/>
+      <c r="AE27" s="55"/>
+      <c r="AF27" s="55"/>
       <c r="AG27" s="53"/>
       <c r="AH27" s="54"/>
       <c r="AI27" s="62"/>
@@ -3741,11 +3745,11 @@
       <c r="Y28" s="52"/>
       <c r="Z28" s="53"/>
       <c r="AA28" s="54"/>
-      <c r="AB28" s="62"/>
-      <c r="AC28" s="55"/>
-      <c r="AD28" s="50"/>
-      <c r="AE28" s="50"/>
-      <c r="AF28" s="52"/>
+      <c r="AB28" s="50"/>
+      <c r="AC28" s="50"/>
+      <c r="AD28" s="55"/>
+      <c r="AE28" s="55"/>
+      <c r="AF28" s="55"/>
       <c r="AG28" s="53"/>
       <c r="AH28" s="54"/>
       <c r="AI28" s="62"/>
@@ -3812,11 +3816,11 @@
       <c r="Y29" s="52"/>
       <c r="Z29" s="53"/>
       <c r="AA29" s="54"/>
-      <c r="AB29" s="79"/>
-      <c r="AC29" s="80"/>
-      <c r="AD29" s="50"/>
-      <c r="AE29" s="50"/>
-      <c r="AF29" s="52"/>
+      <c r="AB29" s="50"/>
+      <c r="AC29" s="50"/>
+      <c r="AD29" s="55"/>
+      <c r="AE29" s="55"/>
+      <c r="AF29" s="55"/>
       <c r="AG29" s="53"/>
       <c r="AH29" s="54"/>
       <c r="AI29" s="79"/>
@@ -3881,11 +3885,11 @@
       <c r="Y30" s="52"/>
       <c r="Z30" s="53"/>
       <c r="AA30" s="54"/>
-      <c r="AB30" s="77"/>
-      <c r="AC30" s="78"/>
-      <c r="AD30" s="50"/>
-      <c r="AE30" s="50"/>
-      <c r="AF30" s="52"/>
+      <c r="AB30" s="50"/>
+      <c r="AC30" s="50"/>
+      <c r="AD30" s="55"/>
+      <c r="AE30" s="55"/>
+      <c r="AF30" s="55"/>
       <c r="AG30" s="53"/>
       <c r="AH30" s="54"/>
       <c r="AI30" s="77"/>
@@ -4779,11 +4783,11 @@
       </c>
       <c r="C43" s="83" t="n">
         <f aca="false">C39+C36+C31+C18+C14+C9</f>
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="D43" s="83" t="n">
         <f aca="false">D39+D36+D31+D18+D14+D9</f>
-        <v>62.5</v>
+        <v>57.85</v>
       </c>
       <c r="E43" s="83"/>
       <c r="F43" s="84"/>
@@ -4805,7 +4809,7 @@
       </c>
       <c r="K43" s="85" t="n">
         <f aca="false">SUM(K9:K42)</f>
-        <v>8</v>
+        <v>8.2</v>
       </c>
       <c r="L43" s="85" t="n">
         <f aca="false">SUM(L9:L42)</f>
@@ -4825,7 +4829,7 @@
       </c>
       <c r="P43" s="85" t="n">
         <f aca="false">SUM(P9:P42)</f>
-        <v>13.5</v>
+        <v>7.75</v>
       </c>
       <c r="Q43" s="85" t="n">
         <f aca="false">SUM(Q9:Q42)</f>
@@ -4833,7 +4837,7 @@
       </c>
       <c r="R43" s="85" t="n">
         <f aca="false">SUM(R9:R42)</f>
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="S43" s="85" t="n">
         <f aca="false">SUM(S9:S42)</f>
@@ -4861,7 +4865,7 @@
       </c>
       <c r="Y43" s="85" t="n">
         <f aca="false">SUM(Y9:Y42)</f>
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z43" s="85" t="n">
         <f aca="false">SUM(Z9:Z42)</f>
@@ -5082,7 +5086,7 @@
       </c>
       <c r="D3" s="90" t="n">
         <f aca="false">Zeitplanung!D9</f>
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="E3" s="91"/>
       <c r="F3" s="92"/>
@@ -5099,7 +5103,7 @@
       </c>
       <c r="D4" s="90" t="n">
         <f aca="false">Zeitplanung!D14</f>
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E4" s="91"/>
       <c r="F4" s="92"/>
@@ -5112,11 +5116,11 @@
       <c r="B5" s="90"/>
       <c r="C5" s="90" t="n">
         <f aca="false">Zeitplanung!C18</f>
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="D5" s="90" t="n">
         <f aca="false">Zeitplanung!D18</f>
-        <v>58</v>
+        <v>56.75</v>
       </c>
       <c r="E5" s="91"/>
       <c r="F5" s="92"/>
